--- a/biology/Botanique/Kartoffeldämpfanlage_Stöckse/Kartoffeldämpfanlage_Stöckse.xlsx
+++ b/biology/Botanique/Kartoffeldämpfanlage_Stöckse/Kartoffeldämpfanlage_Stöckse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kartoffeld%C3%A4mpfanlage_St%C3%B6ckse</t>
+          <t>Kartoffeldämpfanlage_Stöckse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Kartoffeldämpfanlage Stöckse est une ancienne installation fixe d'étuvage de grandes quantités de pommes de terre pour l'alimentation des porcs située à Stöckse en Basse-Saxe (Allemagne). Cette installation, construite en 1962, a été exploitée jusqu'en 1996. Unique installation de ce type subsistant dans le pays, elle est considérée comme un témoin historique de l'activité agricole de la région. De ce fait, elle a été inscrite dans la liste des monuments à protéger et restaurée en 2009. Un prix de la Niedersächsischen Sparkassenstiftung (fondation des Caisses d'Épargne de la Basse-Saxe) lui a été décerné en 2010[1].
+Le Kartoffeldämpfanlage Stöckse est une ancienne installation fixe d'étuvage de grandes quantités de pommes de terre pour l'alimentation des porcs située à Stöckse en Basse-Saxe (Allemagne). Cette installation, construite en 1962, a été exploitée jusqu'en 1996. Unique installation de ce type subsistant dans le pays, elle est considérée comme un témoin historique de l'activité agricole de la région. De ce fait, elle a été inscrite dans la liste des monuments à protéger et restaurée en 2009. Un prix de la Niedersächsischen Sparkassenstiftung (fondation des Caisses d'Épargne de la Basse-Saxe) lui a été décerné en 2010.
 </t>
         </is>
       </c>
